--- a/insercoes.xlsx
+++ b/insercoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3668822024.1\Documents\exercicios_resilia\projeto_individual2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E5D8A-E32B-485E-8211-848CC92813B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291CC3B-2B40-4A1E-A4B1-6D21B0B9266C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{F0AAB0E5-6101-43C5-9D93-CAA96657F7F9}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>react, node, nest, next</t>
   </si>
   <si>
-    <t>market</t>
-  </si>
-  <si>
     <t>analytics, canvas, ads</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>marketing</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A3:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>1.4</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -678,16 +678,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="2">
         <v>4.5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>45412</v>
@@ -696,10 +696,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
       </c>
       <c r="K6" s="1">
         <v>45412</v>
@@ -708,16 +708,16 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -728,10 +728,10 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
       </c>
       <c r="K7" s="1">
         <v>45412</v>
@@ -740,16 +740,16 @@
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -760,10 +760,10 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1">
         <v>45412</v>
@@ -772,16 +772,16 @@
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
         <v>28</v>
       </c>
-      <c r="P8" t="s">
-        <v>29</v>
-      </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -789,22 +789,33 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1">
         <v>45412</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I13" s="3"/>
     </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
     <row r="19" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O19" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I9" xr:uid="{42125D69-580D-4C9B-BD98-D2568ECD20A9}">
+      <formula1>"webdev, dados, marketing"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
